--- a/output/【河洛話注音】秋風辭．劉徹.xlsx
+++ b/output/【河洛話注音】秋風辭．劉徹.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C565B32-6FF1-42CD-A2BC-1CF0339F257F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E196A56B-2508-4144-A89E-CC920D7D5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CD1F11AF-A222-2C42-BF8B-4CD7D9C7D05B}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{CD1F11AF-A222-2C42-BF8B-4CD7D9C7D05B}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>

--- a/output/【河洛話注音】秋風辭．劉徹.xlsx
+++ b/output/【河洛話注音】秋風辭．劉徹.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E196A56B-2508-4144-A89E-CC920D7D5200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612AC09B-CC16-4906-92DE-BAD01563DE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{CD1F11AF-A222-2C42-BF8B-4CD7D9C7D05B}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{CD1F11AF-A222-2C42-BF8B-4CD7D9C7D05B}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="835">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1532,9 +1532,6 @@
     <t>&lt;div class='fifteen_yin'&gt;&lt;p class='title'&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;辭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1547,9 +1544,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公五喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1622,9 +1616,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;交七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;交七語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭三曾&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1640,9 +1631,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧㄨ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;辭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1655,9 +1643,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄥˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1847,9 +1832,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄠ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;極&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1886,9 +1868,6 @@
     <t>&lt;div class='pin_yin'&gt;&lt;p class='title'&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;辭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1977,9 +1956,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tāu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gāu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ai&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -2028,9 +2004,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;辭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2040,9 +2013,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǐng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2116,9 +2086,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dâo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ggâo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;壯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -2143,9 +2110,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chiu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;辭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2158,9 +2122,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hing2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2348,9 +2309,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gau7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;極&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -2402,9 +2360,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rt&gt;chiu1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;辭&lt;/rb&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2417,9 +2372,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;幸&lt;/rb&gt;&lt;rt&gt;hing2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2609,9 +2561,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rt&gt;gau7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄠ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;極&lt;/rb&gt;&lt;rt&gt;kik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2643,6 +2592,48 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公七喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;行&lt;/rb&gt;&lt;rt&gt;hong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -3753,16 +3744,16 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3873,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>429</v>
       </c>
       <c r="C12" t="s">
         <v>107</v>
@@ -3882,7 +3873,7 @@
         <v>108</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -4443,16 +4434,16 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C45" t="s">
         <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -4538,16 +4529,16 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -5588,16 +5579,16 @@
         <v>93</v>
       </c>
       <c r="B112" t="s">
-        <v>466</v>
+        <v>154</v>
       </c>
       <c r="C112" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F112">
         <v>3</v>
@@ -5897,16 +5888,16 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5914,13 +5905,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5999,13 +5990,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>7470</v>
+        <v>18964</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>429</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6016,13 +6007,13 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>7701</v>
+        <v>19069</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6033,16 +6024,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>18964</v>
+        <v>7470</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>153</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6050,16 +6041,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>19069</v>
+        <v>7701</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6441,16 +6432,16 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6458,13 +6449,13 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6475,16 +6466,16 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6492,13 +6483,13 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6730,13 +6721,13 @@
         <v>94</v>
       </c>
       <c r="B50">
-        <v>7560</v>
+        <v>19057</v>
       </c>
       <c r="C50" t="s">
         <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -6747,16 +6738,16 @@
         <v>94</v>
       </c>
       <c r="B51">
-        <v>19057</v>
+        <v>7560</v>
       </c>
       <c r="C51" t="s">
         <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>462</v>
+        <v>117</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6798,16 +6789,16 @@
         <v>112</v>
       </c>
       <c r="B54">
-        <v>18417</v>
+        <v>22977</v>
       </c>
       <c r="C54" t="s">
         <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>466</v>
+        <v>154</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6824,7 +6815,7 @@
         <v>181</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6832,13 +6823,13 @@
         <v>112</v>
       </c>
       <c r="B56">
-        <v>22977</v>
+        <v>18417</v>
       </c>
       <c r="C56" t="s">
         <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>466</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7164,12 +7155,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7179,17 +7170,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7199,17 +7190,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -7224,27 +7215,27 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>762</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7254,17 +7245,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -7274,32 +7265,32 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -7309,37 +7300,37 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -7349,17 +7340,17 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -7369,17 +7360,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -7389,17 +7380,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -7409,7 +7400,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -7424,37 +7415,37 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -7464,42 +7455,42 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -7514,37 +7505,37 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -7554,37 +7545,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -7599,37 +7590,37 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -7639,37 +7630,37 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -7684,37 +7675,37 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -7724,37 +7715,37 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -7764,42 +7755,42 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -7836,12 +7827,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7851,17 +7842,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>673</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7871,17 +7862,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -7896,27 +7887,27 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>678</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7926,17 +7917,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -7946,32 +7937,32 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -7981,37 +7972,37 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -8021,17 +8012,17 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -8041,17 +8032,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -8061,17 +8052,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>673</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -8081,7 +8072,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -8096,37 +8087,37 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>673</v>
+        <v>829</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -8136,42 +8127,42 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -8186,37 +8177,37 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -8226,37 +8217,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -8271,37 +8262,37 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -8311,37 +8302,37 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -8356,37 +8347,37 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -8396,37 +8387,37 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>742</v>
+        <v>831</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -8436,42 +8427,42 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -8508,12 +8499,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -8528,12 +8519,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>637</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -8543,7 +8534,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -8553,7 +8544,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8568,17 +8559,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -8598,12 +8589,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -8623,7 +8614,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -8638,7 +8629,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -8663,7 +8654,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -8678,12 +8669,12 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -8693,7 +8684,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -8703,7 +8694,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -8713,17 +8704,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -8738,12 +8729,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>637</v>
+        <v>826</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -8753,7 +8744,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -8773,7 +8764,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>637</v>
+        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -8793,7 +8784,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -8863,7 +8854,7 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -8883,12 +8874,12 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -8903,7 +8894,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -8928,7 +8919,7 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -8948,12 +8939,12 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -8968,7 +8959,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -8983,7 +8974,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -9003,7 +8994,7 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -9013,7 +9004,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -9053,7 +9044,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -9073,7 +9064,7 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>667</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -9113,12 +9104,12 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -9133,7 +9124,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -9185,7 +9176,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9200,12 +9191,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>592</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9215,7 +9206,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -9225,7 +9216,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9240,17 +9231,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>596</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -9270,12 +9261,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -9295,7 +9286,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -9310,7 +9301,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -9335,7 +9326,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -9350,12 +9341,12 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -9365,7 +9356,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -9375,7 +9366,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -9385,17 +9376,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -9410,12 +9401,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>592</v>
+        <v>826</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -9425,7 +9416,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -9445,7 +9436,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>592</v>
+        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -9465,7 +9456,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -9535,7 +9526,7 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -9555,12 +9546,12 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -9570,12 +9561,12 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -9600,7 +9591,7 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -9615,17 +9606,17 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -9640,7 +9631,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -9655,7 +9646,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -9675,7 +9666,7 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -9685,7 +9676,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -9725,7 +9716,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -9745,7 +9736,7 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>623</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -9760,7 +9751,7 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -9785,12 +9776,12 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -9805,7 +9796,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -9857,7 +9848,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9872,12 +9863,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>592</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9887,7 +9878,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -9897,7 +9888,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9912,17 +9903,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>596</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -9942,12 +9933,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -9967,7 +9958,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -9982,7 +9973,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -10007,7 +9998,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -10022,12 +10013,12 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -10037,7 +10028,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -10047,7 +10038,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -10057,17 +10048,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -10082,12 +10073,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>592</v>
+        <v>826</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -10097,7 +10088,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -10117,7 +10108,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>592</v>
+        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -10137,7 +10128,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -10207,7 +10198,7 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -10227,12 +10218,12 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -10247,7 +10238,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -10272,7 +10263,7 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -10292,12 +10283,12 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -10307,12 +10298,12 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -10327,7 +10318,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -10347,7 +10338,7 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -10357,7 +10348,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -10397,7 +10388,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -10417,7 +10408,7 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>623</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -10432,7 +10423,7 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -10457,12 +10448,12 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -10477,7 +10468,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -10529,7 +10520,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10539,17 +10530,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>510</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -10559,17 +10550,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10584,27 +10575,27 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>515</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -10614,17 +10605,17 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -10634,32 +10625,32 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -10669,37 +10660,37 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -10709,17 +10700,17 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -10729,17 +10720,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -10749,17 +10740,17 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>510</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -10769,7 +10760,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -10784,37 +10775,37 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>510</v>
+        <v>823</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -10824,42 +10815,42 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -10874,37 +10865,37 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -10914,37 +10905,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -10959,37 +10950,37 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -10999,37 +10990,37 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -11044,37 +11035,37 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -11084,37 +11075,37 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>579</v>
+        <v>825</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -11124,42 +11115,42 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -11888,12 +11879,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>474</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -11903,7 +11894,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -11913,7 +11904,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -11928,17 +11919,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>479</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -11958,12 +11949,12 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -11983,12 +11974,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -11998,7 +11989,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -12023,7 +12014,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -12053,7 +12044,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -12063,7 +12054,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -12073,17 +12064,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -12098,12 +12089,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>474</v>
+        <v>821</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -12133,7 +12124,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>474</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -12143,7 +12134,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -12153,7 +12144,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -12188,7 +12179,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -12233,7 +12224,7 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -12248,7 +12239,7 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -12263,7 +12254,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -12273,7 +12264,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -12288,7 +12279,7 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -12308,27 +12299,27 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -12343,7 +12334,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -12358,12 +12349,12 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -12373,7 +12364,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -12403,7 +12394,7 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -12413,7 +12404,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -12433,7 +12424,7 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>504</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -12443,7 +12434,7 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -12473,12 +12464,12 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -12488,12 +12479,12 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:1">
